--- a/LR3/table_2_53.xlsx
+++ b/LR3/table_2_53.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA61892-34B2-4A4A-8047-DEADEB60481D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D227B4E-DAEA-466F-ADF9-4B1256E71CEB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11580" xr2:uid="{414815DB-6205-441D-B348-F52A77596248}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11580" activeTab="1" xr2:uid="{414815DB-6205-441D-B348-F52A77596248}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -64,9 +64,6 @@
     <t>Дата начала1</t>
   </si>
   <si>
-    <t>Продолжи- тельность1, дней</t>
-  </si>
-  <si>
     <t>Дата конца1</t>
   </si>
   <si>
@@ -74,9 +71,6 @@
   </si>
   <si>
     <t>Дата начала2</t>
-  </si>
-  <si>
-    <t>Продолжи- тельность2, дней</t>
   </si>
   <si>
     <t>Дата конца2</t>
@@ -88,9 +82,6 @@
     <t>Дата начала3</t>
   </si>
   <si>
-    <t>Продолжи- тельность3, дней</t>
-  </si>
-  <si>
     <t>Дата конца3</t>
   </si>
   <si>
@@ -100,22 +91,31 @@
     <t>Дата начала4</t>
   </si>
   <si>
-    <t>Продолжи- тельность4, дней</t>
-  </si>
-  <si>
     <t>Дата конца4</t>
   </si>
   <si>
-    <t>Положе- но за год</t>
+    <t/>
   </si>
   <si>
-    <t>Израсхо- довано</t>
+    <t>Продолжительность1, дней</t>
   </si>
   <si>
-    <t>Оста- лось</t>
+    <t>Продолжительность2, дней</t>
   </si>
   <si>
-    <t/>
+    <t>Продолжительность3, дней</t>
+  </si>
+  <si>
+    <t>Продолжительность4, дней</t>
+  </si>
+  <si>
+    <t>Положено за год</t>
+  </si>
+  <si>
+    <t>Израсходовано</t>
+  </si>
+  <si>
+    <t>Осталось</t>
   </si>
 </sst>
 </file>
@@ -123,20 +123,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="173" formatCode="0_ ;[Red]\-0\ "/>
+    <numFmt numFmtId="164" formatCode="0_ ;[Red]\-0\ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -147,10 +140,23 @@
       <charset val="204"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -283,7 +289,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -294,11 +300,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -315,50 +321,49 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -378,6 +383,2668 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Продолжительность1, дней</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Лист1!$A$3:$C$10</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>02.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>03.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>04.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>05.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>06.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>07.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>08.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>09.01.2022</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Сотрудник 1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Сотрудник 2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Сотрудник 3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Сотрудник 4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Сотрудник 5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Сотрудник 6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Сотрудник 7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Сотрудник 8</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1597-4612-88D4-E967336C17E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Столбец2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Лист1!$A$3:$C$10</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>02.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>03.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>04.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>05.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>06.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>07.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>08.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>09.01.2022</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Сотрудник 1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Сотрудник 2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Сотрудник 3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Сотрудник 4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Сотрудник 5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Сотрудник 6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Сотрудник 7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Сотрудник 8</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$F$3:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1597-4612-88D4-E967336C17E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Дата начала2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Лист1!$A$3:$C$10</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>02.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>03.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>04.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>05.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>06.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>07.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>08.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>09.01.2022</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Сотрудник 1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Сотрудник 2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Сотрудник 3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Сотрудник 4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Сотрудник 5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Сотрудник 6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Сотрудник 7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Сотрудник 8</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$G$3:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>44611</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44612</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44613</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44614</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44615</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44616</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44617</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44618</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1597-4612-88D4-E967336C17E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Продолжительность2, дней</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Лист1!$A$3:$C$10</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>02.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>03.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>04.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>05.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>06.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>07.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>08.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>09.01.2022</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Сотрудник 1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Сотрудник 2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Сотрудник 3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Сотрудник 4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Сотрудник 5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Сотрудник 6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Сотрудник 7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Сотрудник 8</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$H$3:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1597-4612-88D4-E967336C17E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Столбец6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Лист1!$A$3:$C$10</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>02.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>03.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>04.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>05.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>06.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>07.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>08.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>09.01.2022</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Сотрудник 1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Сотрудник 2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Сотрудник 3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Сотрудник 4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Сотрудник 5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Сотрудник 6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Сотрудник 7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Сотрудник 8</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$J$3:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-1597-4612-88D4-E967336C17E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Дата начала3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Лист1!$A$3:$C$10</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>02.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>03.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>04.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>05.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>06.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>07.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>08.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>09.01.2022</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Сотрудник 1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Сотрудник 2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Сотрудник 3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Сотрудник 4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Сотрудник 5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Сотрудник 6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Сотрудник 7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Сотрудник 8</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$K$3:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>44682</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44682</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44682</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44682</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44682</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44682</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44682</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44682</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-1597-4612-88D4-E967336C17E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Продолжительность3, дней</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Лист1!$A$3:$C$10</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>02.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>03.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>04.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>05.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>06.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>07.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>08.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>09.01.2022</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Сотрудник 1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Сотрудник 2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Сотрудник 3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Сотрудник 4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Сотрудник 5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Сотрудник 6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Сотрудник 7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Сотрудник 8</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$L$3:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-1597-4612-88D4-E967336C17E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Столбец10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Лист1!$A$3:$C$10</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>02.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>03.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>04.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>05.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>06.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>07.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>08.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>09.01.2022</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Сотрудник 1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Сотрудник 2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Сотрудник 3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Сотрудник 4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Сотрудник 5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Сотрудник 6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Сотрудник 7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Сотрудник 8</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$N$3:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-1597-4612-88D4-E967336C17E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Дата начала4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Лист1!$A$3:$C$10</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>02.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>03.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>04.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>05.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>06.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>07.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>08.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>09.01.2022</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Сотрудник 1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Сотрудник 2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Сотрудник 3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Сотрудник 4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Сотрудник 5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Сотрудник 6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Сотрудник 7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Сотрудник 8</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$O$3:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>44871</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44871</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44871</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44871</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44871</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44871</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44871</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44871</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-1597-4612-88D4-E967336C17E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Продолжительность4, дней</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Лист1!$A$3:$C$10</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>02.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>03.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>04.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>05.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>06.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>07.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>08.01.2022</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>09.01.2022</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Сотрудник 1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Сотрудник 2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Сотрудник 3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Сотрудник 4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Сотрудник 5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Сотрудник 6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Сотрудник 7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Сотрудник 8</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$P$3:$P$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-1597-4612-88D4-E967336C17E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Дата начала1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000003E-1597-4612-88D4-E967336C17E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1923956848"/>
+        <c:axId val="2067411888"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$E$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Дата конца1</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$A$3:$C$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:multiLvlStrCache>
+                      <c:ptCount val="8"/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>02.01.2022</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>03.01.2022</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>04.01.2022</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>05.01.2022</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>06.01.2022</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>07.01.2022</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>08.01.2022</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>09.01.2022</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>Сотрудник 1</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>Сотрудник 2</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>Сотрудник 3</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>Сотрудник 4</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>Сотрудник 5</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>Сотрудник 6</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>Сотрудник 7</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>Сотрудник 8</c:v>
+                        </c:pt>
+                      </c:lvl>
+                    </c:multiLvlStrCache>
+                  </c:multiLvlStrRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$E$3:$E$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>m/d/yyyy</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>44573</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>44576</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>44573</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>44573</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>44571</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>44578</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>44572</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>44579</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-1597-4612-88D4-E967336C17E7}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$I$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Дата конца2</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$A$3:$C$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:multiLvlStrCache>
+                      <c:ptCount val="8"/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>02.01.2022</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>03.01.2022</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>04.01.2022</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>05.01.2022</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>06.01.2022</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>07.01.2022</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>08.01.2022</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>09.01.2022</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>Сотрудник 1</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>Сотрудник 2</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>Сотрудник 3</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>Сотрудник 4</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>Сотрудник 5</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>Сотрудник 6</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>Сотрудник 7</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>Сотрудник 8</c:v>
+                        </c:pt>
+                      </c:lvl>
+                    </c:multiLvlStrCache>
+                  </c:multiLvlStrRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$I$3:$I$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>m/d/yyyy</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>44621</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>44620</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>44620</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>44617</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>44625</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>44618</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>44623</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>44622</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-1597-4612-88D4-E967336C17E7}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$M$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Дата конца3</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$A$3:$C$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:multiLvlStrCache>
+                      <c:ptCount val="8"/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>02.01.2022</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>03.01.2022</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>04.01.2022</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>05.01.2022</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>06.01.2022</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>07.01.2022</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>08.01.2022</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>09.01.2022</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>Сотрудник 1</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>Сотрудник 2</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>Сотрудник 3</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>Сотрудник 4</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>Сотрудник 5</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>Сотрудник 6</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>Сотрудник 7</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>Сотрудник 8</c:v>
+                        </c:pt>
+                      </c:lvl>
+                    </c:multiLvlStrCache>
+                  </c:multiLvlStrRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$M$3:$M$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>m/d/yyyy</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>44687</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>44686</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>44689</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>44692</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>44689</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>44691</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>44695</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>44691</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-1597-4612-88D4-E967336C17E7}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="13"/>
+                <c:order val="13"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$Q$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Дата конца4</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$A$3:$C$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:multiLvlStrCache>
+                      <c:ptCount val="8"/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>02.01.2022</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>03.01.2022</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>04.01.2022</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>05.01.2022</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>06.01.2022</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>07.01.2022</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>08.01.2022</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>09.01.2022</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>Сотрудник 1</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>Сотрудник 2</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>Сотрудник 3</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>Сотрудник 4</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>Сотрудник 5</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>Сотрудник 6</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>Сотрудник 7</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>Сотрудник 8</c:v>
+                        </c:pt>
+                      </c:lvl>
+                    </c:multiLvlStrCache>
+                  </c:multiLvlStrRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$Q$3:$Q$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>m/d/yyyy</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>44874</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>44875</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>44877</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>44879</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>44878</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>44878</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>44877</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>44877</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000D-1597-4612-88D4-E967336C17E7}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1923956848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2067411888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2067411888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1923956848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1066801</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7198701-3187-4C7F-9F88-724B77A6C89C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -679,13 +3346,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EBA60B8-0A5F-46E6-AFCB-833D0721CC78}">
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L19" sqref="L16:L19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="0.375" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="15.75" customWidth="1"/>
@@ -701,37 +3368,39 @@
     <col min="14" max="14" width="0.25" customWidth="1"/>
     <col min="15" max="15" width="17.875" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
+    <col min="17" max="17" width="12.875" customWidth="1"/>
+    <col min="18" max="20" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
+      <c r="A1" s="4">
         <v>44562</v>
       </c>
-      <c r="B1" s="3" t="str">
+      <c r="B1" s="5" t="str">
         <f>"-дата начала года"</f>
         <v>-дата начала года</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
     </row>
-    <row r="2" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:20" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -741,463 +3410,579 @@
         <v>11</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="L2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="N2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="P2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="R2" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T2" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13">
+        <v>44563</v>
+      </c>
+      <c r="D3" s="14">
+        <v>10</v>
+      </c>
+      <c r="E3" s="15">
+        <f>C3+D3</f>
+        <v>44573</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="13">
+        <v>44611</v>
+      </c>
+      <c r="H3" s="14">
+        <v>10</v>
+      </c>
+      <c r="I3" s="15">
+        <f>G3+H3</f>
+        <v>44621</v>
+      </c>
+      <c r="J3" s="16">
+        <v>61</v>
+      </c>
+      <c r="K3" s="13">
+        <v>44682</v>
+      </c>
+      <c r="L3" s="14">
+        <v>5</v>
+      </c>
+      <c r="M3" s="15">
+        <f>K3+L3</f>
+        <v>44687</v>
+      </c>
+      <c r="N3" s="16"/>
+      <c r="O3" s="13">
+        <v>44871</v>
+      </c>
+      <c r="P3" s="14">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="17">
+        <f>O3+P3</f>
+        <v>44874</v>
+      </c>
+      <c r="R3" s="18">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="11">
-        <v>2</v>
-      </c>
-      <c r="C3" s="12">
-        <v>42371</v>
-      </c>
-      <c r="D3" s="13">
-        <v>10</v>
-      </c>
-      <c r="E3" s="14">
-        <f>C3+D3</f>
-        <v>42381</v>
-      </c>
-      <c r="F3" s="15">
-        <v>31</v>
-      </c>
-      <c r="G3" s="12">
-        <v>42419</v>
-      </c>
-      <c r="H3" s="13">
-        <v>10</v>
-      </c>
-      <c r="I3" s="14">
-        <v>42429</v>
-      </c>
-      <c r="J3" s="15">
-        <v>61</v>
-      </c>
-      <c r="K3" s="12">
-        <v>42491</v>
-      </c>
-      <c r="L3" s="13">
-        <v>5</v>
-      </c>
-      <c r="M3" s="14">
-        <v>42496</v>
-      </c>
-      <c r="N3" s="15">
-        <v>183</v>
-      </c>
-      <c r="O3" s="12">
-        <v>42680</v>
-      </c>
-      <c r="P3" s="13">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="16">
-        <v>42684</v>
-      </c>
-      <c r="R3" s="17">
-        <v>28</v>
-      </c>
-      <c r="S3" s="18">
+      <c r="S3" s="19">
         <f>P3+L3+H3+D3</f>
         <v>28</v>
       </c>
-      <c r="T3" s="19">
+      <c r="T3" s="20">
         <f>R3-S3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:20" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="11">
-        <v>-42368</v>
-      </c>
-      <c r="C4" s="12">
-        <v>42372</v>
-      </c>
-      <c r="D4" s="13">
+      <c r="B4" s="12"/>
+      <c r="C4" s="13">
+        <v>44564</v>
+      </c>
+      <c r="D4" s="14">
         <v>12</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="15">
         <f t="shared" ref="E4:E10" si="0">C4+D4</f>
-        <v>42384</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="12">
-        <v>42420</v>
-      </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="12"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="17">
+        <v>44576</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="13">
+        <v>44612</v>
+      </c>
+      <c r="H4" s="14">
+        <v>8</v>
+      </c>
+      <c r="I4" s="15">
+        <f t="shared" ref="I4:I10" si="1">G4+H4</f>
+        <v>44620</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="13">
+        <v>44682</v>
+      </c>
+      <c r="L4" s="14">
+        <v>4</v>
+      </c>
+      <c r="M4" s="15">
+        <f t="shared" ref="M4:M10" si="2">K4+L4</f>
+        <v>44686</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="13">
+        <v>44871</v>
+      </c>
+      <c r="P4" s="14">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="17">
+        <f t="shared" ref="Q4:Q10" si="3">O4+P4</f>
+        <v>44875</v>
+      </c>
+      <c r="R4" s="18">
         <v>28</v>
       </c>
-      <c r="S4" s="18">
-        <f t="shared" ref="S4:S10" si="1">P4+L4+H4+D4</f>
-        <v>12</v>
-      </c>
-      <c r="T4" s="19">
-        <f t="shared" ref="T4:T10" si="2">R4-S4</f>
-        <v>16</v>
+      <c r="S4" s="19">
+        <f t="shared" ref="S4:S10" si="4">P4+L4+H4+D4</f>
+        <v>28</v>
+      </c>
+      <c r="T4" s="20">
+        <f t="shared" ref="T4:T10" si="5">R4-S4</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:20" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="11">
-        <v>-42368</v>
-      </c>
-      <c r="C5" s="12">
-        <v>42373</v>
-      </c>
-      <c r="D5" s="13">
+      <c r="B5" s="12"/>
+      <c r="C5" s="13">
+        <v>44565</v>
+      </c>
+      <c r="D5" s="14">
         <v>8</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="15">
         <f t="shared" si="0"/>
-        <v>42381</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="12">
-        <v>42421</v>
-      </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" s="12"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="17">
+        <v>44573</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="13">
+        <v>44613</v>
+      </c>
+      <c r="H5" s="14">
+        <v>7</v>
+      </c>
+      <c r="I5" s="15">
+        <f>G5+H5</f>
+        <v>44620</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="13">
+        <v>44682</v>
+      </c>
+      <c r="L5" s="14">
+        <v>7</v>
+      </c>
+      <c r="M5" s="15">
+        <f t="shared" si="2"/>
+        <v>44689</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="13">
+        <v>44871</v>
+      </c>
+      <c r="P5" s="14">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="17">
+        <f t="shared" si="3"/>
+        <v>44877</v>
+      </c>
+      <c r="R5" s="18">
         <v>28</v>
       </c>
-      <c r="S5" s="18">
+      <c r="S5" s="19">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="T5" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13">
+        <v>44566</v>
+      </c>
+      <c r="D6" s="14">
+        <v>7</v>
+      </c>
+      <c r="E6" s="15">
+        <f t="shared" si="0"/>
+        <v>44573</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="13">
+        <v>44614</v>
+      </c>
+      <c r="H6" s="14">
+        <v>3</v>
+      </c>
+      <c r="I6" s="15">
         <f t="shared" si="1"/>
+        <v>44617</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="13">
+        <v>44682</v>
+      </c>
+      <c r="L6" s="14">
+        <v>10</v>
+      </c>
+      <c r="M6" s="15">
+        <f t="shared" si="2"/>
+        <v>44692</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" s="13">
+        <v>44871</v>
+      </c>
+      <c r="P6" s="14">
         <v>8</v>
       </c>
-      <c r="T5" s="19">
+      <c r="Q6" s="17">
+        <f t="shared" si="3"/>
+        <v>44879</v>
+      </c>
+      <c r="R6" s="18">
+        <v>28</v>
+      </c>
+      <c r="S6" s="19">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="T6" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13">
+        <v>44567</v>
+      </c>
+      <c r="D7" s="14">
+        <v>4</v>
+      </c>
+      <c r="E7" s="15">
+        <f t="shared" si="0"/>
+        <v>44571</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="13">
+        <v>44615</v>
+      </c>
+      <c r="H7" s="14">
+        <v>10</v>
+      </c>
+      <c r="I7" s="15">
+        <f t="shared" si="1"/>
+        <v>44625</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="13">
+        <v>44682</v>
+      </c>
+      <c r="L7" s="14">
+        <v>7</v>
+      </c>
+      <c r="M7" s="15">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>44689</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="13">
+        <v>44871</v>
+      </c>
+      <c r="P7" s="14">
+        <v>7</v>
+      </c>
+      <c r="Q7" s="17">
+        <f t="shared" si="3"/>
+        <v>44878</v>
+      </c>
+      <c r="R7" s="18">
+        <v>28</v>
+      </c>
+      <c r="S7" s="19">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="T7" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+    <row r="8" spans="1:20" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13">
+        <v>44568</v>
+      </c>
+      <c r="D8" s="14">
+        <v>10</v>
+      </c>
+      <c r="E8" s="15">
+        <f t="shared" si="0"/>
+        <v>44578</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="13">
+        <v>44616</v>
+      </c>
+      <c r="H8" s="14">
+        <v>2</v>
+      </c>
+      <c r="I8" s="15">
+        <f t="shared" si="1"/>
+        <v>44618</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="13">
+        <v>44682</v>
+      </c>
+      <c r="L8" s="14">
+        <v>9</v>
+      </c>
+      <c r="M8" s="15">
+        <f t="shared" si="2"/>
+        <v>44691</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" s="13">
+        <v>44871</v>
+      </c>
+      <c r="P8" s="14">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="17">
+        <f t="shared" si="3"/>
+        <v>44878</v>
+      </c>
+      <c r="R8" s="18">
+        <v>28</v>
+      </c>
+      <c r="S8" s="19">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="T8" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13">
+        <v>44569</v>
+      </c>
+      <c r="D9" s="14">
         <v>3</v>
       </c>
-      <c r="B6" s="11">
-        <v>-42368</v>
-      </c>
-      <c r="C6" s="12">
-        <v>42374</v>
-      </c>
-      <c r="D6" s="13">
+      <c r="E9" s="15">
+        <f t="shared" si="0"/>
+        <v>44572</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="13">
+        <v>44617</v>
+      </c>
+      <c r="H9" s="14">
+        <v>6</v>
+      </c>
+      <c r="I9" s="15">
+        <f t="shared" si="1"/>
+        <v>44623</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="13">
+        <v>44682</v>
+      </c>
+      <c r="L9" s="14">
+        <v>13</v>
+      </c>
+      <c r="M9" s="15">
+        <f t="shared" si="2"/>
+        <v>44695</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" s="13">
+        <v>44871</v>
+      </c>
+      <c r="P9" s="14">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="17">
+        <f t="shared" si="3"/>
+        <v>44877</v>
+      </c>
+      <c r="R9" s="18">
+        <v>28</v>
+      </c>
+      <c r="S9" s="19">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="T9" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="14">
+      <c r="B10" s="22"/>
+      <c r="C10" s="13">
+        <v>44570</v>
+      </c>
+      <c r="D10" s="23">
+        <v>9</v>
+      </c>
+      <c r="E10" s="15">
         <f t="shared" si="0"/>
-        <v>42381</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="12">
-        <v>42422</v>
-      </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="O6" s="12"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="17">
-        <v>28</v>
-      </c>
-      <c r="S6" s="18">
+        <v>44579</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="13">
+        <v>44618</v>
+      </c>
+      <c r="H10" s="23">
+        <v>4</v>
+      </c>
+      <c r="I10" s="15">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="T6" s="19">
+        <v>44622</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="13">
+        <v>44682</v>
+      </c>
+      <c r="L10" s="23">
+        <v>9</v>
+      </c>
+      <c r="M10" s="15">
         <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="11">
-        <v>-42368</v>
-      </c>
-      <c r="C7" s="12">
-        <v>42375</v>
-      </c>
-      <c r="D7" s="13">
-        <v>4</v>
-      </c>
-      <c r="E7" s="14">
-        <f t="shared" si="0"/>
-        <v>42379</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="12">
-        <v>42423</v>
-      </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="O7" s="12"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="17">
-        <v>28</v>
-      </c>
-      <c r="S7" s="18">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="T7" s="19">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="11">
-        <v>-42368</v>
-      </c>
-      <c r="C8" s="12">
-        <v>42376</v>
-      </c>
-      <c r="D8" s="13">
-        <v>10</v>
-      </c>
-      <c r="E8" s="14">
-        <f t="shared" si="0"/>
-        <v>42386</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="12">
-        <v>42424</v>
-      </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="O8" s="12"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="17">
-        <v>28</v>
-      </c>
-      <c r="S8" s="18">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="T8" s="19">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+        <v>44691</v>
+      </c>
+      <c r="N10" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="O10" s="13">
+        <v>44871</v>
+      </c>
+      <c r="P10" s="23">
         <v>6</v>
       </c>
-      <c r="B9" s="11">
-        <v>-42368</v>
-      </c>
-      <c r="C9" s="12">
-        <v>42377</v>
-      </c>
-      <c r="D9" s="13">
-        <v>3</v>
-      </c>
-      <c r="E9" s="14">
-        <f t="shared" si="0"/>
-        <v>42380</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="12">
-        <v>42425</v>
-      </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="O9" s="12"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="17">
-        <v>28</v>
-      </c>
-      <c r="S9" s="18">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="T9" s="19">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="20">
-        <v>-42368</v>
-      </c>
-      <c r="C10" s="12">
-        <v>42378</v>
-      </c>
-      <c r="D10" s="22">
-        <v>9</v>
-      </c>
-      <c r="E10" s="14">
-        <f t="shared" si="0"/>
-        <v>42387</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="12">
-        <v>42426</v>
-      </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="21"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="O10" s="21"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="16"/>
+      <c r="Q10" s="17">
+        <f t="shared" si="3"/>
+        <v>44877</v>
+      </c>
       <c r="R10" s="25">
         <v>28</v>
       </c>
-      <c r="S10" s="18">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="T10" s="19">
-        <f t="shared" si="2"/>
-        <v>19</v>
+      <c r="S10" s="19">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="T10" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1357,15 +4142,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4AAA31C-6FFD-470A-8D9D-B5B4588EB21E}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1418,12 +4204,12 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>44569</v>
+        <v>44615</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>44615</v>
+        <v>44627</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -1433,21 +4219,31 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>44682</v>
+        <v>44683</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>44690</v>
+        <v>44684</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>44724</v>
+        <v>44570</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
+        <v>44571</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>44725</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>44869</v>
       </c>
     </row>
